--- a/EquiposFutbol/equipos_y_jugadores.xlsx
+++ b/EquiposFutbol/equipos_y_jugadores.xlsx
@@ -12,12 +12,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="9">
-  <si>
-    <t>Lista de Equipos y Jugadores</t>
-  </si>
-  <si>
-    <t>Equipo: Real Madrid</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="8">
+  <si>
+    <t>Equipo: Equipo A</t>
   </si>
   <si>
     <t>Jugador</t>
@@ -26,19 +23,19 @@
     <t>Posición</t>
   </si>
   <si>
-    <t>No hay jugadores en este equipo.</t>
-  </si>
-  <si>
-    <t>Equipo: FC Barcelona</t>
-  </si>
-  <si>
-    <t>Equipo: Manchester United</t>
-  </si>
-  <si>
-    <t>Equipo: Bayern Múnich</t>
-  </si>
-  <si>
-    <t>Equipo: Juventus</t>
+    <t>No hay jugadores en este equipo</t>
+  </si>
+  <si>
+    <t>Equipo: Equipo B</t>
+  </si>
+  <si>
+    <t>Equipo: Equipo C</t>
+  </si>
+  <si>
+    <t>Equipo: Equipo D</t>
+  </si>
+  <si>
+    <t>Equipo: Equipo E</t>
   </si>
 </sst>
 </file>
@@ -46,13 +43,33 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="6">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -80,16 +97,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -100,94 +121,89 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="2">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="3">
         <v>5</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>4</v>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>4</v>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="5">
         <v>7</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>4</v>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
